--- a/data/trans_orig/IP05B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP05B-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4314878-A0A9-4FEE-9E4B-8968DEF4BB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94CFB989-FBC4-4521-9E48-19A95ED8707F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8BC0530D-2EE1-47E7-8B43-7F97FED41175}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E603628-E062-457D-9CD7-2BCC8991DF9D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -80,2122 +80,2122 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,07%</t>
+    <t>3,36%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>Mala</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>Buena</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>Muy buena</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>0,61%</t>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según la calidad del medio ambiente de su barrio en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>Población según la calidad del medio ambiente de su barrio en 2016 (Tasa respuesta: 99,72%)</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>Mala</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>Población según la calidad del medio ambiente de su barrio en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>26,75%</t>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
   </si>
   <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>Buena</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>Muy buena</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según la calidad del medio ambiente de su barrio en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
   </si>
   <si>
     <t>75,42%</t>
   </si>
   <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>Población según la calidad del medio ambiente de su barrio en 2015 (Tasa respuesta: 99,72%)</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>Población según la calidad del medio ambiente de su barrio en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
   </si>
   <si>
     <t>70,95%</t>
   </si>
   <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
   </si>
   <si>
     <t>73,3%</t>
   </si>
   <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
   </si>
   <si>
     <t>18,89%</t>
   </si>
   <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
   </si>
   <si>
     <t>18,42%</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
   </si>
 </sst>
 </file>
@@ -2607,7 +2607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AE0BAA-D069-4361-B359-8A34764A30A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50177A1-39BE-45BC-88BF-39000F881889}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3276,10 +3276,10 @@
         <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,7 +3335,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3350,10 +3350,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3362,13 +3362,13 @@
         <v>1348</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3377,13 +3377,13 @@
         <v>1348</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,13 +3398,13 @@
         <v>1820</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3413,13 +3413,13 @@
         <v>4686</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -3428,13 +3428,13 @@
         <v>6505</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,13 +3449,13 @@
         <v>29783</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
@@ -3464,13 +3464,13 @@
         <v>29071</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M18" s="7">
         <v>88</v>
@@ -3479,13 +3479,13 @@
         <v>58854</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,13 +3500,13 @@
         <v>88651</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H19" s="7">
         <v>109</v>
@@ -3515,13 +3515,13 @@
         <v>72769</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M19" s="7">
         <v>242</v>
@@ -3530,13 +3530,13 @@
         <v>161420</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3551,13 @@
         <v>21262</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
@@ -3566,13 +3566,13 @@
         <v>19674</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>61</v>
@@ -3581,13 +3581,13 @@
         <v>40936</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,7 +3643,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3655,13 +3655,13 @@
         <v>1311</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -3670,13 +3670,13 @@
         <v>1423</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -3685,13 +3685,13 @@
         <v>2734</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3706,13 @@
         <v>6601</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -3721,13 +3721,13 @@
         <v>6999</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -3736,13 +3736,13 @@
         <v>13600</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3757,13 @@
         <v>38347</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>53</v>
@@ -3772,13 +3772,13 @@
         <v>36802</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>111</v>
@@ -3787,13 +3787,13 @@
         <v>75149</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +3808,13 @@
         <v>138498</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>195</v>
@@ -3823,28 +3823,28 @@
         <v>131594</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>403</v>
       </c>
       <c r="N25" s="7">
-        <v>270092</v>
+        <v>270091</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +3859,13 @@
         <v>20627</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -3874,13 +3874,13 @@
         <v>17279</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>57</v>
@@ -3889,13 +3889,13 @@
         <v>37906</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,7 +3937,7 @@
         <v>595</v>
       </c>
       <c r="N27" s="7">
-        <v>399481</v>
+        <v>399480</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>58</v>
@@ -3963,13 +3963,13 @@
         <v>3269</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -3978,13 +3978,13 @@
         <v>4915</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -3993,13 +3993,13 @@
         <v>8184</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4014,13 @@
         <v>19976</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>31</v>
@@ -4029,13 +4029,13 @@
         <v>21313</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>62</v>
@@ -4044,13 +4044,13 @@
         <v>41289</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,13 +4065,13 @@
         <v>156795</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>215</v>
@@ -4080,10 +4080,10 @@
         <v>145962</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>209</v>
@@ -4279,7 +4279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A36A92-91D6-4173-9429-B2373A17A199}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FCEC65-884A-4A37-84BE-82B6B1E4873F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4406,7 +4406,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>233</v>
@@ -4421,7 +4421,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>234</v>
@@ -4436,10 +4436,10 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,7 +4472,7 @@
         <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>239</v>
@@ -4487,10 +4487,10 @@
         <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,7 +4613,7 @@
         <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>23</v>
@@ -4622,13 +4622,13 @@
         <v>14668</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>45</v>
@@ -4637,13 +4637,13 @@
         <v>30091</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,13 +4711,13 @@
         <v>1695</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4732,7 +4732,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>25</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -4744,10 +4744,10 @@
         <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4762,13 @@
         <v>4619</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>23</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -4780,10 +4780,10 @@
         <v>240</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>16</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>160</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -4792,13 +4792,13 @@
         <v>8331</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4813,13 @@
         <v>34770</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H12" s="7">
         <v>51</v>
@@ -4828,13 +4828,13 @@
         <v>34981</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M12" s="7">
         <v>100</v>
@@ -4843,7 +4843,7 @@
         <v>69751</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>180</v>
+        <v>282</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>283</v>
@@ -4948,10 +4948,10 @@
         <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,7 +5007,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5022,10 +5022,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5034,13 +5034,13 @@
         <v>609</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5049,13 +5049,13 @@
         <v>609</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5070,13 @@
         <v>2704</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -5091,7 +5091,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -5103,10 +5103,10 @@
         <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>149</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,13 +5121,13 @@
         <v>19744</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>314</v>
+        <v>33</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
@@ -5223,10 +5223,10 @@
         <v>14402</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>330</v>
+        <v>24</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>331</v>
@@ -5315,7 +5315,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5330,10 +5330,10 @@
         <v>12</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -5360,10 +5360,10 @@
         <v>16</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>274</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5378,13 @@
         <v>1922</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>110</v>
+        <v>343</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>344</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -5393,13 +5393,13 @@
         <v>2195</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -5411,10 +5411,10 @@
         <v>238</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5429,13 @@
         <v>25797</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>144</v>
+        <v>350</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
@@ -5444,13 +5444,13 @@
         <v>25353</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>349</v>
+        <v>211</v>
       </c>
       <c r="M24" s="7">
         <v>74</v>
@@ -5459,13 +5459,13 @@
         <v>51150</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5480,13 @@
         <v>126376</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H25" s="7">
         <v>172</v>
@@ -5495,13 +5495,13 @@
         <v>120278</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="M25" s="7">
         <v>357</v>
@@ -5510,13 +5510,13 @@
         <v>246654</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5531,13 @@
         <v>25859</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>362</v>
+        <v>301</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H26" s="7">
         <v>28</v>
@@ -5546,13 +5546,13 @@
         <v>20119</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M26" s="7">
         <v>66</v>
@@ -5561,7 +5561,7 @@
         <v>45978</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>369</v>
@@ -5653,10 +5653,10 @@
         <v>373</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>151</v>
+        <v>305</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>66</v>
+        <v>374</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -5665,10 +5665,10 @@
         <v>5620</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>375</v>
+        <v>190</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>376</v>
@@ -5686,13 +5686,13 @@
         <v>12111</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -5701,13 +5701,13 @@
         <v>8317</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M29" s="7">
         <v>29</v>
@@ -5716,13 +5716,13 @@
         <v>20429</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5737,13 @@
         <v>100062</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H30" s="7">
         <v>152</v>
@@ -5821,10 +5821,10 @@
         <v>399</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5839,13 @@
         <v>90541</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H32" s="7">
         <v>113</v>
@@ -5854,13 +5854,13 @@
         <v>77401</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M32" s="7">
         <v>244</v>
@@ -5869,13 +5869,13 @@
         <v>167942</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="P32" s="7" t="s">
-        <v>335</v>
-      </c>
       <c r="Q32" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,7 +5951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43130CD4-921F-44A1-8C9A-FF97E99BC63B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B39ED15-941B-4A63-AF21-9AEFFC77CD63}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5968,7 +5968,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6075,13 +6075,13 @@
         <v>795</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6090,13 +6090,13 @@
         <v>1039</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>344</v>
+        <v>413</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -6105,13 +6105,13 @@
         <v>1834</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,10 +6129,10 @@
         <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>412</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -6141,13 +6141,13 @@
         <v>2281</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>187</v>
+        <v>310</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -6156,13 +6156,13 @@
         <v>2281</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>416</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6177,13 @@
         <v>15261</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H6" s="7">
         <v>27</v>
@@ -6192,13 +6192,13 @@
         <v>16972</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M6" s="7">
         <v>50</v>
@@ -6207,10 +6207,10 @@
         <v>32233</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>424</v>
@@ -6234,7 +6234,7 @@
         <v>426</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>427</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>126</v>
@@ -6243,13 +6243,13 @@
         <v>80710</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M7" s="7">
         <v>240</v>
@@ -6258,13 +6258,13 @@
         <v>155809</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,10 +6279,10 @@
         <v>33008</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>435</v>
@@ -6312,10 +6312,10 @@
         <v>439</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,13 +6383,13 @@
         <v>763</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -6404,7 +6404,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -6413,13 +6413,13 @@
         <v>1240</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>446</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,13 +6434,13 @@
         <v>1891</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>235</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -6449,13 +6449,13 @@
         <v>4196</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>448</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -6464,13 +6464,13 @@
         <v>6086</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,10 +6488,10 @@
         <v>228</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H12" s="7">
         <v>42</v>
@@ -6500,13 +6500,13 @@
         <v>26836</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M12" s="7">
         <v>84</v>
@@ -6515,13 +6515,13 @@
         <v>55447</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>184</v>
+        <v>454</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6536,13 +6536,13 @@
         <v>170346</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>459</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H13" s="7">
         <v>199</v>
@@ -6554,10 +6554,10 @@
         <v>45</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="M13" s="7">
         <v>450</v>
@@ -6566,13 +6566,13 @@
         <v>295831</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6587,13 @@
         <v>55773</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H14" s="7">
         <v>81</v>
@@ -6602,13 +6602,13 @@
         <v>52263</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M14" s="7">
         <v>163</v>
@@ -6617,13 +6617,13 @@
         <v>108036</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,7 +6679,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6691,13 +6691,13 @@
         <v>1348</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6709,10 +6709,10 @@
         <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -6721,13 +6721,13 @@
         <v>1348</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>338</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,13 +6742,13 @@
         <v>2180</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>480</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -6757,13 +6757,13 @@
         <v>4893</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>374</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -6772,13 +6772,13 @@
         <v>7073</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,13 +6793,13 @@
         <v>22563</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="H18" s="7">
         <v>31</v>
@@ -6808,13 +6808,13 @@
         <v>21909</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
@@ -6823,13 +6823,13 @@
         <v>44471</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6844,13 +6844,13 @@
         <v>112292</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H19" s="7">
         <v>161</v>
@@ -6859,13 +6859,13 @@
         <v>109844</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="M19" s="7">
         <v>319</v>
@@ -6874,13 +6874,13 @@
         <v>222136</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6895,13 +6895,13 @@
         <v>50189</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>504</v>
+        <v>463</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H20" s="7">
         <v>72</v>
@@ -6910,13 +6910,13 @@
         <v>51608</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>507</v>
+        <v>205</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="M20" s="7">
         <v>141</v>
@@ -6925,13 +6925,13 @@
         <v>101797</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6987,7 +6987,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6999,13 +6999,13 @@
         <v>1502</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>275</v>
+        <v>507</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -7014,13 +7014,13 @@
         <v>549</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>513</v>
+        <v>193</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>63</v>
+        <v>269</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -7029,13 +7029,13 @@
         <v>2051</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>516</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7050,13 +7050,13 @@
         <v>1683</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>378</v>
+        <v>511</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -7065,13 +7065,13 @@
         <v>1429</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -7080,13 +7080,13 @@
         <v>3112</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>191</v>
+        <v>416</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7101,13 @@
         <v>20523</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>351</v>
+        <v>516</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
@@ -7116,13 +7116,13 @@
         <v>23124</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>524</v>
+        <v>454</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>33</v>
+        <v>520</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
@@ -7131,13 +7131,13 @@
         <v>43647</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>525</v>
+        <v>230</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7152,13 @@
         <v>108876</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="H25" s="7">
         <v>161</v>
@@ -7167,13 +7167,13 @@
         <v>112430</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="M25" s="7">
         <v>308</v>
@@ -7182,13 +7182,13 @@
         <v>221305</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,13 +7203,13 @@
         <v>40646</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="H26" s="7">
         <v>51</v>
@@ -7218,13 +7218,13 @@
         <v>35769</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>541</v>
+        <v>120</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>542</v>
+        <v>78</v>
       </c>
       <c r="M26" s="7">
         <v>105</v>
@@ -7233,13 +7233,13 @@
         <v>76415</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,13 +7307,13 @@
         <v>4408</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>151</v>
+        <v>539</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>66</v>
+        <v>540</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -7322,13 +7322,13 @@
         <v>2065</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>546</v>
+        <v>196</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>475</v>
+        <v>542</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -7337,13 +7337,13 @@
         <v>6474</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>372</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,13 +7358,13 @@
         <v>5754</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>549</v>
+        <v>240</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -7373,13 +7373,13 @@
         <v>12798</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>17</v>
+        <v>543</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>550</v>
+        <v>374</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -7388,13 +7388,13 @@
         <v>18552</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>553</v>
+        <v>234</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,13 +7409,13 @@
         <v>86958</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="H30" s="7">
         <v>131</v>
@@ -7424,13 +7424,13 @@
         <v>88840</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>297</v>
+        <v>551</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>559</v>
+        <v>490</v>
       </c>
       <c r="M30" s="7">
         <v>256</v>
@@ -7439,13 +7439,13 @@
         <v>175798</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>140</v>
+        <v>553</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>242</v>
+        <v>554</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7460,13 +7460,13 @@
         <v>466613</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="H31" s="7">
         <v>647</v>
@@ -7475,13 +7475,13 @@
         <v>428468</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="M31" s="7">
         <v>1317</v>
@@ -7490,13 +7490,13 @@
         <v>895081</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>132</v>
+        <v>563</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7511,13 +7511,13 @@
         <v>179615</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>82</v>
+        <v>565</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="H32" s="7">
         <v>255</v>
@@ -7526,13 +7526,13 @@
         <v>169758</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="M32" s="7">
         <v>509</v>
@@ -7541,13 +7541,13 @@
         <v>349372</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>576</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7623,7 +7623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C435AD4D-7609-4AFB-9C1C-3AD986EE715A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC0ABAB-236C-4924-A5A9-F907938455D9}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7640,7 +7640,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7750,10 +7750,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7765,10 +7765,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7780,10 +7780,10 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>448</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7798,13 +7798,13 @@
         <v>1092</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -7813,13 +7813,13 @@
         <v>2212</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -7828,13 +7828,13 @@
         <v>3304</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>311</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7849,13 +7849,13 @@
         <v>2946</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>586</v>
+        <v>380</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>405</v>
+        <v>582</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -7864,13 +7864,13 @@
         <v>4687</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>340</v>
+        <v>482</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -7879,13 +7879,13 @@
         <v>7632</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>203</v>
+        <v>586</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>590</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7900,13 +7900,13 @@
         <v>40684</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="H7" s="7">
         <v>74</v>
@@ -7915,13 +7915,13 @@
         <v>39496</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="M7" s="7">
         <v>152</v>
@@ -7930,13 +7930,13 @@
         <v>80180</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>593</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>598</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7951,13 +7951,13 @@
         <v>13781</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -7966,13 +7966,13 @@
         <v>10974</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>208</v>
+        <v>598</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="M8" s="7">
         <v>54</v>
@@ -7981,13 +7981,13 @@
         <v>24755</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>487</v>
+        <v>284</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>503</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8055,13 +8055,13 @@
         <v>1874</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>605</v>
+        <v>113</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>606</v>
+        <v>376</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -8091,7 +8091,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>607</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8106,13 +8106,13 @@
         <v>2341</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>608</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>546</v>
+        <v>603</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -8121,13 +8121,13 @@
         <v>1463</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>610</v>
+        <v>481</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>480</v>
+        <v>605</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -8136,13 +8136,13 @@
         <v>3804</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>379</v>
+        <v>607</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,13 +8157,13 @@
         <v>13729</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>49</v>
+        <v>610</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -8172,13 +8172,13 @@
         <v>10295</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>203</v>
+        <v>612</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="M12" s="7">
         <v>37</v>
@@ -8187,13 +8187,13 @@
         <v>24024</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>616</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8208,10 +8208,10 @@
         <v>123409</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>619</v>
@@ -8226,10 +8226,10 @@
         <v>620</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>433</v>
+        <v>621</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M13" s="7">
         <v>382</v>
@@ -8238,13 +8238,13 @@
         <v>237120</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8259,7 +8259,7 @@
         <v>33286</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>625</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>626</v>
@@ -8351,7 +8351,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8366,10 +8366,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8381,10 +8381,10 @@
         <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -8396,7 +8396,7 @@
         <v>12</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>339</v>
@@ -8432,10 +8432,10 @@
         <v>12</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -8450,7 +8450,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>611</v>
+        <v>545</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8468,10 +8468,10 @@
         <v>637</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -8498,10 +8498,10 @@
         <v>642</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>643</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8516,13 +8516,13 @@
         <v>157343</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>646</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>647</v>
       </c>
       <c r="H19" s="7">
         <v>168</v>
@@ -8531,7 +8531,7 @@
         <v>126435</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>177</v>
+        <v>647</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>648</v>
@@ -8582,13 +8582,13 @@
         <v>32059</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>337</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="M20" s="7">
         <v>77</v>
@@ -8603,7 +8603,7 @@
         <v>658</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>659</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8659,7 +8659,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8674,7 +8674,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>11</v>
@@ -8689,7 +8689,7 @@
         <v>12</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>11</v>
@@ -8704,10 +8704,10 @@
         <v>12</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>191</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8722,13 +8722,13 @@
         <v>3236</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>550</v>
+        <v>660</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -8737,13 +8737,13 @@
         <v>9321</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="M23" s="7">
         <v>7</v>
@@ -8752,13 +8752,13 @@
         <v>12557</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>298</v>
+        <v>665</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8773,13 +8773,13 @@
         <v>10969</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>663</v>
+        <v>200</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>664</v>
+        <v>148</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -8788,13 +8788,13 @@
         <v>19908</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>668</v>
+        <v>246</v>
       </c>
       <c r="M24" s="7">
         <v>44</v>
@@ -8908,10 +8908,10 @@
         <v>687</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>688</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8985,7 +8985,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>690</v>
+        <v>302</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -8997,10 +8997,10 @@
         <v>12</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -9009,13 +9009,13 @@
         <v>1874</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>268</v>
+        <v>65</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>236</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9030,13 +9030,13 @@
         <v>7639</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>692</v>
+        <v>62</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>693</v>
+        <v>575</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -9048,10 +9048,10 @@
         <v>22</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>60</v>
+        <v>690</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>261</v>
+        <v>691</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -9060,13 +9060,13 @@
         <v>20635</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>549</v>
+        <v>442</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>475</v>
+        <v>192</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9081,13 +9081,13 @@
         <v>38121</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>695</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>697</v>
       </c>
       <c r="H30" s="7">
         <v>75</v>
@@ -9096,13 +9096,13 @@
         <v>53340</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="M30" s="7">
         <v>133</v>
@@ -9111,13 +9111,13 @@
         <v>91462</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>700</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9132,13 +9132,13 @@
         <v>546133</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>395</v>
+        <v>701</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>703</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>652</v>
       </c>
       <c r="H31" s="7">
         <v>674</v>
